--- a/output/1Y_P83_KFSDIV.xlsx
+++ b/output/1Y_P83_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.0064</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.0129</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="F3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="H3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.4583</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E4" s="1">
-        <v>1998.0721</v>
+        <v>1994.0679</v>
       </c>
       <c r="F4" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="H4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0096</v>
+        <v>10.0297</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0445</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.3341</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E5" s="1">
-        <v>2954.2504</v>
+        <v>2948.3301</v>
       </c>
       <c r="F5" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="H5" s="1">
-        <v>30529.5192</v>
+        <v>30407.3073</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30529.5192</v>
+        <v>30407.3073</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1549</v>
+        <v>10.1753</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0119</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3921.9206</v>
+        <v>3914.0658</v>
       </c>
       <c r="F6" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="H6" s="1">
-        <v>38766.616</v>
+        <v>38611.476</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38766.616</v>
+        <v>38611.476</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1991</v>
+        <v>10.2196</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1329.4127</v>
+        <v>1326.7485</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8670.587299999999</v>
+        <v>-8673.2515</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0435</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4933.5953</v>
+        <v>4923.718</v>
       </c>
       <c r="F7" s="1">
-        <v>1022.3141</v>
+        <v>1020.2288</v>
       </c>
       <c r="H7" s="1">
-        <v>49175.611</v>
+        <v>48979.1776</v>
       </c>
       <c r="I7" s="1">
-        <v>1329.4127</v>
+        <v>1326.7485</v>
       </c>
       <c r="J7" s="1">
-        <v>50505.0237</v>
+        <v>50305.9261</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1346</v>
+        <v>10.1549</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10189.9161</v>
+        <v>-10189.5355</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0356</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.4908</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E8" s="1">
-        <v>5955.9094</v>
+        <v>5943.9469</v>
       </c>
       <c r="F8" s="1">
-        <v>971.3193</v>
+        <v>969.3425999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>62482.2545</v>
+        <v>62231.935</v>
       </c>
       <c r="I8" s="1">
-        <v>1139.4966</v>
+        <v>1137.213</v>
       </c>
       <c r="J8" s="1">
-        <v>63621.7511</v>
+        <v>63369.1481</v>
       </c>
       <c r="K8" s="1">
-        <v>60189.9161</v>
+        <v>60189.5355</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1059</v>
+        <v>10.1262</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10189.9161</v>
+        <v>-10189.5355</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0515</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.6308</v>
       </c>
       <c r="C9" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D9" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E9" s="1">
-        <v>6927.2287</v>
+        <v>6913.2895</v>
       </c>
       <c r="F9" s="1">
-        <v>958.5277</v>
+        <v>956.5753</v>
       </c>
       <c r="H9" s="1">
-        <v>73641.9826</v>
+        <v>73346.5447</v>
       </c>
       <c r="I9" s="1">
-        <v>949.5805</v>
+        <v>947.6775</v>
       </c>
       <c r="J9" s="1">
-        <v>74591.5631</v>
+        <v>74294.2222</v>
       </c>
       <c r="K9" s="1">
-        <v>70379.8322</v>
+        <v>70379.071</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1599</v>
+        <v>10.1803</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10189.9161</v>
+        <v>-10189.5355</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0132</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.3176</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E10" s="1">
-        <v>7885.7564</v>
+        <v>7869.8648</v>
       </c>
       <c r="F10" s="1">
-        <v>987.6247</v>
+        <v>985.6104</v>
       </c>
       <c r="H10" s="1">
-        <v>81362.07980000001</v>
+        <v>81035.99739999999</v>
       </c>
       <c r="I10" s="1">
-        <v>759.6644</v>
+        <v>758.1420000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>82121.7442</v>
+        <v>81794.1394</v>
       </c>
       <c r="K10" s="1">
-        <v>80569.74830000001</v>
+        <v>80568.60649999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2171</v>
+        <v>10.2376</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10189.9161</v>
+        <v>-10189.5355</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0292</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.2392</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E11" s="1">
-        <v>8873.380999999999</v>
+        <v>8855.4751</v>
       </c>
       <c r="F11" s="1">
-        <v>995.1867</v>
+        <v>993.1612</v>
       </c>
       <c r="H11" s="1">
-        <v>90856.32279999999</v>
+        <v>90491.44349999999</v>
       </c>
       <c r="I11" s="1">
-        <v>569.7483</v>
+        <v>568.6065</v>
       </c>
       <c r="J11" s="1">
-        <v>91426.0711</v>
+        <v>91060.05</v>
       </c>
       <c r="K11" s="1">
-        <v>90759.66439999999</v>
+        <v>90758.14200000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2283</v>
+        <v>10.2488</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10189.9161</v>
+        <v>-10189.5355</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D12" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9868.567800000001</v>
+        <v>9848.6363</v>
       </c>
       <c r="F12" s="1">
-        <v>1021.136</v>
+        <v>1019.0555</v>
       </c>
       <c r="H12" s="1">
-        <v>98477.45080000001</v>
+        <v>98082.56849999999</v>
       </c>
       <c r="I12" s="1">
-        <v>379.8322</v>
+        <v>379.071</v>
       </c>
       <c r="J12" s="1">
-        <v>98857.28290000001</v>
+        <v>98461.6395</v>
       </c>
       <c r="K12" s="1">
-        <v>100949.5805</v>
+        <v>100947.6775</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2294</v>
+        <v>10.2499</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1996.5107</v>
+        <v>1992.4819</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8193.4054</v>
+        <v>-8197.053599999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0253</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.1873</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E13" s="1">
-        <v>10889.7037</v>
+        <v>10867.6917</v>
       </c>
       <c r="F13" s="1">
-        <v>1196.2372</v>
+        <v>1193.4145</v>
       </c>
       <c r="H13" s="1">
-        <v>110936.679</v>
+        <v>110490.7349</v>
       </c>
       <c r="I13" s="1">
-        <v>2186.4268</v>
+        <v>2182.0174</v>
       </c>
       <c r="J13" s="1">
-        <v>113123.1058</v>
+        <v>112672.7523</v>
       </c>
       <c r="K13" s="1">
-        <v>111139.4966</v>
+        <v>111137.213</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2059</v>
+        <v>10.2264</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12186.4268</v>
+        <v>-12182.0174</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0392</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.4058</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E14" s="1">
-        <v>12085.9409</v>
+        <v>12061.1062</v>
       </c>
       <c r="F14" s="1">
-        <v>-12085.9409</v>
+        <v>-12061.1062</v>
       </c>
       <c r="H14" s="1">
-        <v>125763.8839</v>
+        <v>125254.5883</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125763.8839</v>
+        <v>125254.5883</v>
       </c>
       <c r="K14" s="1">
-        <v>123325.9234</v>
+        <v>123319.2304</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2041</v>
+        <v>10.2245</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125763.8839</v>
+        <v>125254.5883</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.0064</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.0129</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="F3" s="1">
-        <v>998.0629</v>
+        <v>996.7109</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9993.504199999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.4583</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E4" s="1">
-        <v>1997.4233</v>
+        <v>1994.0679</v>
       </c>
       <c r="F4" s="1">
-        <v>871.1117</v>
+        <v>880.2112</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20889.6523</v>
+        <v>20812.8839</v>
       </c>
       <c r="I4" s="1">
-        <v>6.4958</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20896.1482</v>
+        <v>20812.8839</v>
       </c>
       <c r="K4" s="1">
-        <v>19993.5042</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0096</v>
+        <v>10.0297</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9110.3477</v>
+        <v>-9223.996999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0445</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.3341</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E5" s="1">
-        <v>2868.535</v>
+        <v>2874.279</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.1455</v>
+        <v>1004.1704</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29643.7279</v>
+        <v>29643.5894</v>
       </c>
       <c r="I5" s="1">
-        <v>896.1482</v>
+        <v>776.003</v>
       </c>
       <c r="J5" s="1">
-        <v>30539.8761</v>
+        <v>30419.5924</v>
       </c>
       <c r="K5" s="1">
-        <v>29103.8518</v>
+        <v>29223.997</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1459</v>
+        <v>10.1674</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10356.2721</v>
+        <v>-10397.9833</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0115</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3870.6806</v>
+        <v>3878.4494</v>
       </c>
       <c r="F6" s="1">
-        <v>1066.2926</v>
+        <v>1047.8191</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38260.1291</v>
+        <v>38260.1276</v>
       </c>
       <c r="I6" s="1">
-        <v>539.8761</v>
+        <v>378.0198</v>
       </c>
       <c r="J6" s="1">
-        <v>38800.0052</v>
+        <v>38638.1474</v>
       </c>
       <c r="K6" s="1">
-        <v>39460.1239</v>
+        <v>39621.9802</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1946</v>
+        <v>10.2159</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1290.8408</v>
+        <v>1293.4256</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9249.035400000001</v>
+        <v>-9084.5942</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0429</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4936.9732</v>
+        <v>4926.2685</v>
       </c>
       <c r="F7" s="1">
-        <v>1082.5904</v>
+        <v>1105.3371</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49209.2803</v>
+        <v>49004.5488</v>
       </c>
       <c r="I7" s="1">
-        <v>1290.8408</v>
+        <v>1293.4256</v>
       </c>
       <c r="J7" s="1">
-        <v>50500.1211</v>
+        <v>50297.9743</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1277</v>
+        <v>10.1497</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10790.7197</v>
+        <v>-11039.5542</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0348</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.4908</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E8" s="1">
-        <v>6019.5636</v>
+        <v>6031.6056</v>
       </c>
       <c r="F8" s="1">
-        <v>652.9494999999999</v>
+        <v>654.2910000000001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63150.0376</v>
+        <v>63149.7045</v>
       </c>
       <c r="I8" s="1">
-        <v>500.1211</v>
+        <v>253.8714</v>
       </c>
       <c r="J8" s="1">
-        <v>63650.1587</v>
+        <v>63403.5758</v>
       </c>
       <c r="K8" s="1">
-        <v>60790.7197</v>
+        <v>61039.5542</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0989</v>
+        <v>10.12</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6849.9624</v>
+        <v>-6877.7758</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0521</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.6308</v>
       </c>
       <c r="C9" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D9" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E9" s="1">
-        <v>6672.5131</v>
+        <v>6685.8966</v>
       </c>
       <c r="F9" s="1">
-        <v>852.7908</v>
+        <v>854.5153</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70934.15180000001</v>
+        <v>70934.01979999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3650.1587</v>
+        <v>3376.0956</v>
       </c>
       <c r="J9" s="1">
-        <v>74584.31050000001</v>
+        <v>74310.1154</v>
       </c>
       <c r="K9" s="1">
-        <v>67640.68210000001</v>
+        <v>67917.33</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1372</v>
+        <v>10.1583</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9065.8482</v>
+        <v>-9102.382600000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0127</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.3176</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E10" s="1">
-        <v>7525.3038</v>
+        <v>7540.4119</v>
       </c>
       <c r="F10" s="1">
-        <v>1197.655</v>
+        <v>1199.9979</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77643.0748</v>
+        <v>77643.6213</v>
       </c>
       <c r="I10" s="1">
-        <v>4584.3105</v>
+        <v>4273.713</v>
       </c>
       <c r="J10" s="1">
-        <v>82227.3854</v>
+        <v>81917.3343</v>
       </c>
       <c r="K10" s="1">
-        <v>76706.53019999999</v>
+        <v>77019.7126</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1931</v>
+        <v>10.2143</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12356.9252</v>
+        <v>-12405.9386</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0279</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.2392</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E11" s="1">
-        <v>8722.9588</v>
+        <v>8740.409799999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1043.4292</v>
+        <v>1045.5708</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>89316.12</v>
+        <v>89315.6259</v>
       </c>
       <c r="I11" s="1">
-        <v>2227.3854</v>
+        <v>1867.7744</v>
       </c>
       <c r="J11" s="1">
-        <v>91543.50539999999</v>
+        <v>91183.40029999999</v>
       </c>
       <c r="K11" s="1">
-        <v>89063.45540000001</v>
+        <v>89425.65119999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2102</v>
+        <v>10.2313</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10683.88</v>
+        <v>-10727.2425</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0074</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D12" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9766.388000000001</v>
+        <v>9785.980600000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1156.7798</v>
+        <v>1114.1646</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97457.8092</v>
+        <v>97458.5808</v>
       </c>
       <c r="I12" s="1">
-        <v>1543.5054</v>
+        <v>1140.5319</v>
       </c>
       <c r="J12" s="1">
-        <v>99001.3146</v>
+        <v>98599.1127</v>
       </c>
       <c r="K12" s="1">
-        <v>99747.3354</v>
+        <v>100152.8937</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2133</v>
+        <v>10.2343</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1962.6657</v>
+        <v>1966.5922</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9580.8397</v>
+        <v>-9173.939700000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.025</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.1873</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E13" s="1">
-        <v>10923.1678</v>
+        <v>10900.1452</v>
       </c>
       <c r="F13" s="1">
-        <v>856.2046</v>
+        <v>902.8626</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111277.5871</v>
+        <v>110820.6863</v>
       </c>
       <c r="I13" s="1">
-        <v>1962.6657</v>
+        <v>1966.5922</v>
       </c>
       <c r="J13" s="1">
-        <v>113240.2528</v>
+        <v>112787.2785</v>
       </c>
       <c r="K13" s="1">
-        <v>111290.8408</v>
+        <v>111293.4256</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1885</v>
+        <v>10.2103</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8722.412899999999</v>
+        <v>-9216.1505</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0389</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.4058</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E14" s="1">
-        <v>11779.3724</v>
+        <v>11803.0078</v>
       </c>
       <c r="F14" s="1">
-        <v>-11779.3724</v>
+        <v>-11803.0078</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122573.7929</v>
+        <v>122574.236</v>
       </c>
       <c r="I14" s="1">
-        <v>3240.2528</v>
+        <v>2750.4417</v>
       </c>
       <c r="J14" s="1">
-        <v>125814.0457</v>
+        <v>125324.6777</v>
       </c>
       <c r="K14" s="1">
-        <v>120013.2537</v>
+        <v>120509.576</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1884</v>
+        <v>10.2101</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122573.7929</v>
+        <v>122574.236</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0209</v>
+        <v>0.0207</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.0064</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.0129</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="F3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.4583</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E4" s="1">
-        <v>1998.0721</v>
+        <v>1994.0679</v>
       </c>
       <c r="F4" s="1">
-        <v>884.8295000000001</v>
+        <v>894.6065</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0096</v>
+        <v>10.0297</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9253.812900000001</v>
+        <v>-9374.850200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0445</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.3341</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E5" s="1">
-        <v>2882.9016</v>
+        <v>2888.6744</v>
       </c>
       <c r="F5" s="1">
-        <v>1016.9059</v>
+        <v>1018.9605</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29792.1936</v>
+        <v>29792.0544</v>
       </c>
       <c r="I5" s="1">
-        <v>746.1871</v>
+        <v>625.1498</v>
       </c>
       <c r="J5" s="1">
-        <v>30538.3808</v>
+        <v>30417.2042</v>
       </c>
       <c r="K5" s="1">
-        <v>29253.8129</v>
+        <v>29374.8502</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1474</v>
+        <v>10.169</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10508.8076</v>
+        <v>-10551.1318</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0116</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3899.8076</v>
+        <v>3907.6348</v>
       </c>
       <c r="F6" s="1">
-        <v>1035.6898</v>
+        <v>1017.1255</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38548.0378</v>
+        <v>38548.0363</v>
       </c>
       <c r="I6" s="1">
-        <v>237.3795</v>
+        <v>74.018</v>
       </c>
       <c r="J6" s="1">
-        <v>38785.4173</v>
+        <v>38622.0543</v>
       </c>
       <c r="K6" s="1">
-        <v>39762.6205</v>
+        <v>39925.982</v>
       </c>
       <c r="L6" s="1">
-        <v>10.196</v>
+        <v>10.2174</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1297.3057</v>
+        <v>1299.9035</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8940.0738</v>
+        <v>-8774.1145</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0432</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4935.4974</v>
+        <v>4924.7604</v>
       </c>
       <c r="F7" s="1">
-        <v>1133.4142</v>
+        <v>1131.4046</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49194.57</v>
+        <v>48989.5463</v>
       </c>
       <c r="I7" s="1">
-        <v>1297.3057</v>
+        <v>1299.9035</v>
       </c>
       <c r="J7" s="1">
-        <v>50491.8757</v>
+        <v>50289.4497</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1307</v>
+        <v>10.1528</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11297.3057</v>
+        <v>-11299.9035</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.035</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.4908</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E8" s="1">
-        <v>6068.9115</v>
+        <v>6056.165</v>
       </c>
       <c r="F8" s="1">
-        <v>704.5275</v>
+        <v>730.86</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63667.7371</v>
+        <v>63406.836</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63667.7371</v>
+        <v>63406.836</v>
       </c>
       <c r="K8" s="1">
-        <v>61297.3057</v>
+        <v>61299.9035</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1002</v>
+        <v>10.1219</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7391.0567</v>
+        <v>-7682.654</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0525</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.6308</v>
       </c>
       <c r="C9" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D9" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E9" s="1">
-        <v>6773.439</v>
+        <v>6787.025</v>
       </c>
       <c r="F9" s="1">
-        <v>884.8828</v>
+        <v>886.672</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>72007.0753</v>
+        <v>72006.94130000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2608.9433</v>
+        <v>2317.346</v>
       </c>
       <c r="J9" s="1">
-        <v>74616.0186</v>
+        <v>74324.2873</v>
       </c>
       <c r="K9" s="1">
-        <v>68688.3625</v>
+        <v>68982.55740000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1408</v>
+        <v>10.1639</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9407.012500000001</v>
+        <v>-9444.918799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0129</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.3176</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E10" s="1">
-        <v>7658.3218</v>
+        <v>7673.697</v>
       </c>
       <c r="F10" s="1">
-        <v>1241.1469</v>
+        <v>1243.5759</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79015.50139999999</v>
+        <v>79016.0576</v>
       </c>
       <c r="I10" s="1">
-        <v>3201.9307</v>
+        <v>2872.4272</v>
       </c>
       <c r="J10" s="1">
-        <v>82217.4322</v>
+        <v>81888.48480000001</v>
       </c>
       <c r="K10" s="1">
-        <v>78095.375</v>
+        <v>78427.4762</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1975</v>
+        <v>10.2203</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12805.6568</v>
+        <v>-12856.4604</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0283</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.2392</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E11" s="1">
-        <v>8899.468699999999</v>
+        <v>8917.272800000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1015.3404</v>
+        <v>976.2436</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91123.4399</v>
+        <v>91122.93580000001</v>
       </c>
       <c r="I11" s="1">
-        <v>396.2739</v>
+        <v>15.9668</v>
       </c>
       <c r="J11" s="1">
-        <v>91519.7138</v>
+        <v>91138.9026</v>
       </c>
       <c r="K11" s="1">
-        <v>90901.0318</v>
+        <v>91283.93670000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2142</v>
+        <v>10.2368</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10396.2739</v>
+        <v>-10015.9668</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0076</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D12" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9914.8091</v>
+        <v>9893.5165</v>
       </c>
       <c r="F12" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98938.889</v>
+        <v>98529.5304</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98938.889</v>
+        <v>98529.5304</v>
       </c>
       <c r="K12" s="1">
-        <v>101297.3057</v>
+        <v>101299.9035</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2168</v>
+        <v>10.239</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>2002.3805</v>
+        <v>2006.3864</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7997.6195</v>
+        <v>-7993.6136</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.1873</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E13" s="1">
-        <v>10916.9136</v>
+        <v>10893.6165</v>
       </c>
       <c r="F13" s="1">
-        <v>1178.1709</v>
+        <v>1176.2088</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111213.8736</v>
+        <v>110754.3093</v>
       </c>
       <c r="I13" s="1">
-        <v>2002.3805</v>
+        <v>2006.3864</v>
       </c>
       <c r="J13" s="1">
-        <v>113216.2541</v>
+        <v>112760.6957</v>
       </c>
       <c r="K13" s="1">
-        <v>111297.3057</v>
+        <v>111299.9035</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1949</v>
+        <v>10.217</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12002.3805</v>
+        <v>-12006.3864</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0393</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.4058</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E14" s="1">
-        <v>12095.0845</v>
+        <v>12069.8253</v>
       </c>
       <c r="F14" s="1">
-        <v>-12095.0845</v>
+        <v>-12069.8253</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125859.03</v>
+        <v>125345.1352</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>125859.03</v>
+        <v>125345.1352</v>
       </c>
       <c r="K14" s="1">
-        <v>123299.6862</v>
+        <v>123306.2899</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1942</v>
+        <v>10.2161</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125859.03</v>
+        <v>125345.1352</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0214</v>
+        <v>0.0211</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.0064</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.0129</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="F3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.4583</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E4" s="1">
-        <v>1998.0721</v>
+        <v>1994.0679</v>
       </c>
       <c r="F4" s="1">
-        <v>899.2439000000001</v>
+        <v>909.0498</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0096</v>
+        <v>10.0297</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9404.562900000001</v>
+        <v>-9526.2053</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0445</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.3341</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E5" s="1">
-        <v>2897.316</v>
+        <v>2903.1176</v>
       </c>
       <c r="F5" s="1">
-        <v>1025.2888</v>
+        <v>1011.4917</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29941.1534</v>
+        <v>29941.0134</v>
       </c>
       <c r="I5" s="1">
-        <v>595.4371</v>
+        <v>473.7947</v>
       </c>
       <c r="J5" s="1">
-        <v>30536.5905</v>
+        <v>30414.8081</v>
       </c>
       <c r="K5" s="1">
-        <v>29404.5629</v>
+        <v>29526.2053</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1489</v>
+        <v>10.1705</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10595.4371</v>
+        <v>-10473.7947</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0116</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3922.6048</v>
+        <v>3914.6094</v>
       </c>
       <c r="F6" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38773.3796</v>
+        <v>38616.8386</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38773.3796</v>
+        <v>38616.8386</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1973</v>
+        <v>10.2181</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1303.7922</v>
+        <v>1306.4029</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8696.2078</v>
+        <v>-8693.597100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0435</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4934.2795</v>
+        <v>4924.2617</v>
       </c>
       <c r="F7" s="1">
-        <v>1134.0649</v>
+        <v>1132.0554</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49182.4314</v>
+        <v>48984.5852</v>
       </c>
       <c r="I7" s="1">
-        <v>1303.7922</v>
+        <v>1306.4029</v>
       </c>
       <c r="J7" s="1">
-        <v>50486.2236</v>
+        <v>50290.9881</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1332</v>
+        <v>10.1538</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11303.7922</v>
+        <v>-11306.4029</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0351</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.4908</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E8" s="1">
-        <v>6068.3445</v>
+        <v>6056.317</v>
       </c>
       <c r="F8" s="1">
-        <v>807.7138</v>
+        <v>833.533</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63661.7883</v>
+        <v>63408.4279</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63661.7883</v>
+        <v>63408.4279</v>
       </c>
       <c r="K8" s="1">
-        <v>61303.7922</v>
+        <v>61306.4029</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1022</v>
+        <v>10.1227</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8473.5638</v>
+        <v>-8761.9326</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0525</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.6308</v>
       </c>
       <c r="C9" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D9" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E9" s="1">
-        <v>6876.0583</v>
+        <v>6889.8501</v>
       </c>
       <c r="F9" s="1">
-        <v>917.9653</v>
+        <v>919.8211</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73098.0003</v>
+        <v>73097.8642</v>
       </c>
       <c r="I9" s="1">
-        <v>1526.4362</v>
+        <v>1238.0674</v>
       </c>
       <c r="J9" s="1">
-        <v>74624.43640000001</v>
+        <v>74335.93150000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69777.356</v>
+        <v>70068.33560000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1479</v>
+        <v>10.1698</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9758.705400000001</v>
+        <v>-9798.025799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0131</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.3176</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E10" s="1">
-        <v>7794.0236</v>
+        <v>7809.6711</v>
       </c>
       <c r="F10" s="1">
-        <v>1140.5492</v>
+        <v>1106.5689</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80415.61749999999</v>
+        <v>80416.18339999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1767.7308</v>
+        <v>1440.0415</v>
       </c>
       <c r="J10" s="1">
-        <v>82183.3483</v>
+        <v>81856.2249</v>
       </c>
       <c r="K10" s="1">
-        <v>79536.06140000001</v>
+        <v>79866.36139999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2047</v>
+        <v>10.2266</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11767.7308</v>
+        <v>-11440.0415</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0288</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.2392</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E11" s="1">
-        <v>8934.5728</v>
+        <v>8916.24</v>
       </c>
       <c r="F11" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91482.8777</v>
+        <v>91112.382</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>91482.8777</v>
+        <v>91112.382</v>
       </c>
       <c r="K11" s="1">
-        <v>91303.7922</v>
+        <v>91306.4029</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2192</v>
+        <v>10.2405</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D12" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9911.211600000001</v>
+        <v>9890.9274</v>
       </c>
       <c r="F12" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98902.98940000001</v>
+        <v>98503.746</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98902.98940000001</v>
+        <v>98503.746</v>
       </c>
       <c r="K12" s="1">
-        <v>101303.7922</v>
+        <v>101306.4029</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2211</v>
+        <v>10.2424</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>2010.2789</v>
+        <v>2006.154</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7989.7211</v>
+        <v>-7993.846</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.1873</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E13" s="1">
-        <v>10913.316</v>
+        <v>10891.0274</v>
       </c>
       <c r="F13" s="1">
-        <v>1178.9462</v>
+        <v>1176.186</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111177.2242</v>
+        <v>110727.9866</v>
       </c>
       <c r="I13" s="1">
-        <v>2010.2789</v>
+        <v>2006.154</v>
       </c>
       <c r="J13" s="1">
-        <v>113187.5031</v>
+        <v>112734.1406</v>
       </c>
       <c r="K13" s="1">
-        <v>111303.7922</v>
+        <v>111306.4029</v>
       </c>
       <c r="L13" s="1">
-        <v>10.1989</v>
+        <v>10.22</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12010.2789</v>
+        <v>-12006.154</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0393</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.4058</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E14" s="1">
-        <v>12092.2622</v>
+        <v>12067.2134</v>
       </c>
       <c r="F14" s="1">
-        <v>-12092.2622</v>
+        <v>-12067.2134</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125829.6624</v>
+        <v>125318.0115</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>125829.6624</v>
+        <v>125318.0115</v>
       </c>
       <c r="K14" s="1">
-        <v>123314.0711</v>
+        <v>123312.5569</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1978</v>
+        <v>10.2188</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125829.6624</v>
+        <v>125318.0115</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0214</v>
+        <v>0.0211</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.0064</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.0129</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E3" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="F3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10006.4958</v>
+        <v>9966.488799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.4583</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E4" s="1">
-        <v>1998.0721</v>
+        <v>1994.0679</v>
       </c>
       <c r="F4" s="1">
-        <v>913.7061</v>
+        <v>923.5409</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20896.4371</v>
+        <v>20812.8839</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0096</v>
+        <v>10.0297</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9555.812900000001</v>
+        <v>-9678.0625</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0445</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.3341</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E5" s="1">
-        <v>2911.7782</v>
+        <v>2917.6088</v>
       </c>
       <c r="F5" s="1">
-        <v>1010.6528</v>
+        <v>996.8264</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30090.6071</v>
+        <v>30090.4665</v>
       </c>
       <c r="I5" s="1">
-        <v>444.1871</v>
+        <v>321.9375</v>
       </c>
       <c r="J5" s="1">
-        <v>30534.7943</v>
+        <v>30412.404</v>
       </c>
       <c r="K5" s="1">
-        <v>29555.8129</v>
+        <v>29678.0625</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1504</v>
+        <v>10.172</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10444.1871</v>
+        <v>-10321.9375</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0117</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3922.431</v>
+        <v>3914.4351</v>
       </c>
       <c r="F6" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38771.6616</v>
+        <v>38615.1198</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38771.6616</v>
+        <v>38615.1198</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1978</v>
+        <v>10.2186</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1310.3002</v>
+        <v>1312.924</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8689.6998</v>
+        <v>-8687.075999999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0435</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4934.1057</v>
+        <v>4924.0874</v>
       </c>
       <c r="F7" s="1">
-        <v>1134.7179</v>
+        <v>1132.7083</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49180.6989</v>
+        <v>48982.852</v>
       </c>
       <c r="I7" s="1">
-        <v>1310.3002</v>
+        <v>1312.924</v>
       </c>
       <c r="J7" s="1">
-        <v>50490.9991</v>
+        <v>50295.776</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1335</v>
+        <v>10.1542</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11310.3002</v>
+        <v>-11312.924</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0353</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.4908</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E8" s="1">
-        <v>6068.8236</v>
+        <v>6056.7957</v>
       </c>
       <c r="F8" s="1">
-        <v>911.5728</v>
+        <v>937.6017000000001</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63666.8145</v>
+        <v>63413.4396</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63666.8145</v>
+        <v>63413.4396</v>
       </c>
       <c r="K8" s="1">
-        <v>61310.3002</v>
+        <v>61312.924</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1025</v>
+        <v>10.123</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9563.127399999999</v>
+        <v>-9855.881600000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0525</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.6308</v>
       </c>
       <c r="C9" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D9" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E9" s="1">
-        <v>6980.3963</v>
+        <v>6994.3974</v>
       </c>
       <c r="F9" s="1">
-        <v>952.0632000000001</v>
+        <v>953.9876</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74207.1974</v>
+        <v>74207.05929999999</v>
       </c>
       <c r="I9" s="1">
-        <v>436.8726</v>
+        <v>144.1184</v>
       </c>
       <c r="J9" s="1">
-        <v>74644.07000000001</v>
+        <v>74351.1777</v>
       </c>
       <c r="K9" s="1">
-        <v>70873.4276</v>
+        <v>71168.80560000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1532</v>
+        <v>10.1751</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10121.1936</v>
+        <v>-10161.9717</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0133</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.3176</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E10" s="1">
-        <v>7932.4596</v>
+        <v>7948.385</v>
       </c>
       <c r="F10" s="1">
-        <v>999.8138</v>
+        <v>965.5501</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81843.94469999999</v>
+        <v>81844.52069999999</v>
       </c>
       <c r="I10" s="1">
-        <v>315.6789</v>
+        <v>-17.8533</v>
       </c>
       <c r="J10" s="1">
-        <v>82159.62360000001</v>
+        <v>81826.6675</v>
       </c>
       <c r="K10" s="1">
-        <v>80994.6213</v>
+        <v>81330.7772</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2105</v>
+        <v>10.2324</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10315.6789</v>
+        <v>-9982.146699999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0294</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.2392</v>
       </c>
       <c r="C11" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D11" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E11" s="1">
-        <v>8932.2734</v>
+        <v>8913.935100000001</v>
       </c>
       <c r="F11" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91459.3334</v>
+        <v>91088.8291</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>91459.3334</v>
+        <v>91088.8291</v>
       </c>
       <c r="K11" s="1">
-        <v>91310.3002</v>
+        <v>91312.924</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2225</v>
+        <v>10.2438</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D12" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9908.912200000001</v>
+        <v>9888.622499999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>98880.0436</v>
+        <v>98480.7917</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98880.0436</v>
+        <v>98480.7917</v>
       </c>
       <c r="K12" s="1">
-        <v>101310.3002</v>
+        <v>101312.924</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2242</v>
+        <v>10.2454</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>2009.7615</v>
+        <v>2005.6354</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7990.2385</v>
+        <v>-7994.3646</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.1873</v>
       </c>
       <c r="C13" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D13" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E13" s="1">
-        <v>10911.0166</v>
+        <v>10888.7225</v>
       </c>
       <c r="F13" s="1">
-        <v>1178.8954</v>
+        <v>1176.1352</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111153.7992</v>
+        <v>110704.5531</v>
       </c>
       <c r="I13" s="1">
-        <v>2009.7615</v>
+        <v>2005.6354</v>
       </c>
       <c r="J13" s="1">
-        <v>113163.5607</v>
+        <v>112710.1885</v>
       </c>
       <c r="K13" s="1">
-        <v>111310.3002</v>
+        <v>111312.924</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2016</v>
+        <v>10.2228</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12009.7615</v>
+        <v>-12005.6354</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0393</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.4058</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E14" s="1">
-        <v>12089.912</v>
+        <v>12064.8577</v>
       </c>
       <c r="F14" s="1">
-        <v>-12089.912</v>
+        <v>-12064.8577</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125805.2065</v>
+        <v>125293.5476</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125805.2065</v>
+        <v>125293.5476</v>
       </c>
       <c r="K14" s="1">
-        <v>123320.0617</v>
+        <v>123318.5594</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2002</v>
+        <v>10.2213</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125805.2065</v>
+        <v>125293.5476</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0214</v>
+        <v>0.0211</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2041</v>
+        <v>10.2245</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1884</v>
+        <v>10.2101</v>
       </c>
       <c r="E3" s="1">
-        <v>10.1942</v>
+        <v>10.2161</v>
       </c>
       <c r="F3" s="1">
-        <v>10.1978</v>
+        <v>10.2188</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2002</v>
+        <v>10.2213</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0438</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0887</v>
+        <v>0.0762</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0897</v>
+        <v>0.0775</v>
       </c>
       <c r="E4" s="3">
-        <v>0.09</v>
+        <v>0.0775</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0896</v>
+        <v>0.0772</v>
       </c>
       <c r="G4" s="3">
-        <v>0.08939999999999999</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,13 +4536,13 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1049</v>
+        <v>0.1048</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1038</v>
+        <v>0.104</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1047</v>
+        <v>0.1048</v>
       </c>
       <c r="F5" s="3">
         <v>0.1051</v>
@@ -4559,19 +4559,19 @@
         <v>0.2436</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6514</v>
+        <v>0.5332</v>
       </c>
       <c r="D6" s="4">
-        <v>0.6685</v>
+        <v>0.5498</v>
       </c>
       <c r="E6" s="4">
-        <v>0.6657999999999999</v>
+        <v>0.5454</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6593</v>
+        <v>0.5409</v>
       </c>
       <c r="G6" s="4">
-        <v>0.6556</v>
+        <v>0.5374</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0907</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0931</v>
+        <v>0.0849</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0926</v>
+        <v>0.0843</v>
       </c>
       <c r="F7" s="3">
-        <v>0.09180000000000001</v>
+        <v>0.0835</v>
       </c>
       <c r="G7" s="3">
-        <v>0.091</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3325.9234</v>
+        <v>3319.2304</v>
       </c>
       <c r="D8" s="1">
-        <v>3253.5065</v>
+        <v>3260.0178</v>
       </c>
       <c r="E8" s="1">
-        <v>3299.6862</v>
+        <v>3306.2899</v>
       </c>
       <c r="F8" s="1">
-        <v>3314.0711</v>
+        <v>3312.5569</v>
       </c>
       <c r="G8" s="1">
-        <v>3320.0617</v>
+        <v>3318.5594</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P83_KFSDIV.xlsx
+++ b/output/1Y_P83_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0064</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0129</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4583</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3341</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.884600000000001</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967499999999999</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4908</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.6308</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3176</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2392</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.978999999999999</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1873</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4058</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0064</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0129</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4583</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3341</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.884600000000001</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967499999999999</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4908</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.6308</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3176</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2392</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.978999999999999</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1873</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4058</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0064</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0129</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4583</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3341</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.884600000000001</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967499999999999</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4908</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.6308</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3176</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2392</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.978999999999999</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1873</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4058</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0064</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0129</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4583</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3341</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.884600000000001</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967499999999999</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4908</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.6308</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3176</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2392</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.978999999999999</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1873</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4058</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0064</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0129</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4583</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3341</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.884600000000001</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967499999999999</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4908</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.6308</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3176</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.2392</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.978999999999999</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1873</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4058</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4283.9176</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0157</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0482</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0195</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0164</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
